--- a/trapper_data_report.xlsx
+++ b/trapper_data_report.xlsx
@@ -33756,7 +33756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36189,6 +36189,84 @@
       </c>
       <c r="O68" s="2" t="inlineStr"/>
     </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>45598</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>51.9487947855414</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>-122.1999941584867</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>fisher_track_85_photo1.jpg</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr"/>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr"/>
+      <c r="K69" s="2" t="inlineStr"/>
+      <c r="L69" s="2" t="inlineStr"/>
+      <c r="M69" s="2" t="inlineStr"/>
+      <c r="N69" s="2" t="inlineStr">
+        <is>
+          <t>TRACK</t>
+        </is>
+      </c>
+      <c r="O69" s="2" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>45598</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>51.93205960565463</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>-122.1806457919275</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>fisher_track_86_photo1.jpg</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr"/>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr"/>
+      <c r="K70" s="2" t="inlineStr"/>
+      <c r="L70" s="2" t="inlineStr"/>
+      <c r="M70" s="2" t="inlineStr"/>
+      <c r="N70" s="2" t="inlineStr">
+        <is>
+          <t>TRACK</t>
+        </is>
+      </c>
+      <c r="O70" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trapper_data_report.xlsx
+++ b/trapper_data_report.xlsx
@@ -33756,7 +33756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36267,6 +36267,41 @@
       </c>
       <c r="O70" s="2" t="inlineStr"/>
     </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>45606</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>52.00094015808067</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>-122.0824730863069</v>
+      </c>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr"/>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr"/>
+      <c r="K71" s="2" t="inlineStr"/>
+      <c r="L71" s="2" t="inlineStr"/>
+      <c r="M71" s="2" t="inlineStr"/>
+      <c r="N71" s="2" t="inlineStr">
+        <is>
+          <t>VISUAL</t>
+        </is>
+      </c>
+      <c r="O71" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trapper_data_report.xlsx
+++ b/trapper_data_report.xlsx
@@ -33756,7 +33756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33779,6 +33779,7 @@
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -33855,6 +33856,11 @@
       <c r="O1" s="1" t="inlineStr">
         <is>
           <t>KILL_SITE_POP_UP_TEXT</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>POINT_ACCURACY</t>
         </is>
       </c>
     </row>
@@ -33892,6 +33898,7 @@
         </is>
       </c>
       <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -33927,6 +33934,7 @@
         </is>
       </c>
       <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -33962,6 +33970,7 @@
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -33997,6 +34006,7 @@
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -34032,6 +34042,7 @@
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -34063,6 +34074,7 @@
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -34098,6 +34110,7 @@
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -34133,6 +34146,7 @@
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -34168,6 +34182,7 @@
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -34203,6 +34218,7 @@
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -34238,6 +34254,7 @@
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr"/>
+      <c r="P12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -34273,6 +34290,7 @@
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -34308,6 +34326,7 @@
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -34343,6 +34362,7 @@
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -34378,6 +34398,7 @@
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -34413,6 +34434,7 @@
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -34448,6 +34470,7 @@
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -34483,6 +34506,7 @@
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -34518,6 +34542,7 @@
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -34553,6 +34578,7 @@
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -34588,6 +34614,7 @@
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -34623,6 +34650,7 @@
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -34658,6 +34686,7 @@
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -34689,6 +34718,7 @@
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -34720,6 +34750,7 @@
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -34755,6 +34786,7 @@
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -34790,6 +34822,7 @@
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -34825,6 +34858,7 @@
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -34856,6 +34890,7 @@
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -34891,6 +34926,7 @@
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -34922,6 +34958,7 @@
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -34957,6 +34994,7 @@
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -34988,6 +35026,7 @@
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -35023,6 +35062,7 @@
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -35058,6 +35098,7 @@
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -35093,6 +35134,7 @@
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr"/>
+      <c r="P37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -35128,6 +35170,7 @@
         </is>
       </c>
       <c r="O38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -35163,6 +35206,7 @@
         </is>
       </c>
       <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -35198,6 +35242,7 @@
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -35233,6 +35278,7 @@
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr"/>
+      <c r="P41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -35268,6 +35314,7 @@
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -35303,6 +35350,7 @@
         </is>
       </c>
       <c r="O43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -35338,6 +35386,7 @@
         </is>
       </c>
       <c r="O44" s="2" t="inlineStr"/>
+      <c r="P44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -35373,6 +35422,7 @@
         </is>
       </c>
       <c r="O45" s="2" t="inlineStr"/>
+      <c r="P45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -35408,6 +35458,7 @@
         </is>
       </c>
       <c r="O46" s="2" t="inlineStr"/>
+      <c r="P46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -35443,6 +35494,7 @@
         </is>
       </c>
       <c r="O47" s="2" t="inlineStr"/>
+      <c r="P47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -35478,6 +35530,7 @@
         </is>
       </c>
       <c r="O48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -35513,6 +35566,7 @@
         </is>
       </c>
       <c r="O49" s="2" t="inlineStr"/>
+      <c r="P49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -35548,6 +35602,7 @@
         </is>
       </c>
       <c r="O50" s="2" t="inlineStr"/>
+      <c r="P50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -35579,6 +35634,7 @@
         </is>
       </c>
       <c r="O51" s="2" t="inlineStr"/>
+      <c r="P51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -35614,6 +35670,7 @@
         </is>
       </c>
       <c r="O52" s="2" t="inlineStr"/>
+      <c r="P52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -35649,6 +35706,7 @@
         </is>
       </c>
       <c r="O53" s="2" t="inlineStr"/>
+      <c r="P53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -35684,6 +35742,7 @@
         </is>
       </c>
       <c r="O54" s="2" t="inlineStr"/>
+      <c r="P54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -35719,6 +35778,7 @@
         </is>
       </c>
       <c r="O55" s="2" t="inlineStr"/>
+      <c r="P55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -35754,6 +35814,7 @@
         </is>
       </c>
       <c r="O56" s="2" t="inlineStr"/>
+      <c r="P56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -35789,6 +35850,7 @@
         </is>
       </c>
       <c r="O57" s="2" t="inlineStr"/>
+      <c r="P57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -35824,6 +35886,7 @@
         </is>
       </c>
       <c r="O58" s="2" t="inlineStr"/>
+      <c r="P58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -35855,6 +35918,7 @@
         </is>
       </c>
       <c r="O59" s="2" t="inlineStr"/>
+      <c r="P59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -35890,6 +35954,7 @@
         </is>
       </c>
       <c r="O60" s="2" t="inlineStr"/>
+      <c r="P60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -35921,6 +35986,7 @@
         </is>
       </c>
       <c r="O61" s="2" t="inlineStr"/>
+      <c r="P61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -35956,6 +36022,7 @@
         </is>
       </c>
       <c r="O62" s="2" t="inlineStr"/>
+      <c r="P62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -35991,6 +36058,7 @@
         </is>
       </c>
       <c r="O63" s="2" t="inlineStr"/>
+      <c r="P63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -36026,6 +36094,7 @@
         </is>
       </c>
       <c r="O64" s="2" t="inlineStr"/>
+      <c r="P64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -36057,6 +36126,7 @@
         </is>
       </c>
       <c r="O65" s="2" t="inlineStr"/>
+      <c r="P65" s="2" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -36102,6 +36172,7 @@
         </is>
       </c>
       <c r="O66" s="2" t="inlineStr"/>
+      <c r="P66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -36147,6 +36218,7 @@
         </is>
       </c>
       <c r="O67" s="2" t="inlineStr"/>
+      <c r="P67" s="2" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -36188,6 +36260,7 @@
         </is>
       </c>
       <c r="O68" s="2" t="inlineStr"/>
+      <c r="P68" s="2" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -36227,6 +36300,7 @@
         </is>
       </c>
       <c r="O69" s="2" t="inlineStr"/>
+      <c r="P69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -36266,6 +36340,7 @@
         </is>
       </c>
       <c r="O70" s="2" t="inlineStr"/>
+      <c r="P70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -36301,6 +36376,47 @@
         </is>
       </c>
       <c r="O71" s="2" t="inlineStr"/>
+      <c r="P71" s="2" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>45612</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>51.93565653176264</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>-122.1792880074328</v>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>fisher_track_88_photo1.jpg</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr"/>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr"/>
+      <c r="K72" s="2" t="inlineStr"/>
+      <c r="L72" s="2" t="inlineStr"/>
+      <c r="M72" s="2" t="inlineStr"/>
+      <c r="N72" s="2" t="inlineStr">
+        <is>
+          <t>TRACK</t>
+        </is>
+      </c>
+      <c r="O72" s="2" t="inlineStr"/>
+      <c r="P72" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trapper_data_report.xlsx
+++ b/trapper_data_report.xlsx
@@ -33756,7 +33756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36418,6 +36418,122 @@
       <c r="O72" s="2" t="inlineStr"/>
       <c r="P72" s="2" t="inlineStr"/>
     </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>45618</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>51.93359839734802</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>-122.1786167846268</v>
+      </c>
+      <c r="E73" s="2" t="inlineStr"/>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="inlineStr"/>
+      <c r="H73" s="2" t="inlineStr"/>
+      <c r="I73" s="2" t="inlineStr"/>
+      <c r="J73" s="2" t="inlineStr"/>
+      <c r="K73" s="2" t="inlineStr"/>
+      <c r="L73" s="2" t="inlineStr"/>
+      <c r="M73" s="2" t="inlineStr"/>
+      <c r="N73" s="2" t="inlineStr">
+        <is>
+          <t>VISUAL</t>
+        </is>
+      </c>
+      <c r="O73" s="2" t="inlineStr"/>
+      <c r="P73" s="2" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>45621</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>52.01109304054451</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>-122.1569694298689</v>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>fisher_track_104_photo1.jpg</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr"/>
+      <c r="H74" s="2" t="inlineStr"/>
+      <c r="I74" s="2" t="inlineStr"/>
+      <c r="J74" s="2" t="inlineStr"/>
+      <c r="K74" s="2" t="inlineStr"/>
+      <c r="L74" s="2" t="inlineStr"/>
+      <c r="M74" s="2" t="inlineStr"/>
+      <c r="N74" s="2" t="inlineStr">
+        <is>
+          <t>TRACK</t>
+        </is>
+      </c>
+      <c r="O74" s="2" t="inlineStr"/>
+      <c r="P74" s="2" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>45633</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>52.05179342934365</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>-122.1611858341725</v>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>fisher_track_105_photo1.jpg</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr"/>
+      <c r="H75" s="2" t="inlineStr"/>
+      <c r="I75" s="2" t="inlineStr"/>
+      <c r="J75" s="2" t="inlineStr"/>
+      <c r="K75" s="2" t="inlineStr"/>
+      <c r="L75" s="2" t="inlineStr"/>
+      <c r="M75" s="2" t="inlineStr"/>
+      <c r="N75" s="2" t="inlineStr">
+        <is>
+          <t>TRACK</t>
+        </is>
+      </c>
+      <c r="O75" s="2" t="inlineStr"/>
+      <c r="P75" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trapper_data_report.xlsx
+++ b/trapper_data_report.xlsx
@@ -33756,7 +33756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36534,6 +36534,98 @@
       <c r="O75" s="2" t="inlineStr"/>
       <c r="P75" s="2" t="inlineStr"/>
     </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>45639</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>52.16889510996533</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>-124.1470140515901</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr"/>
+      <c r="H76" s="2" t="inlineStr"/>
+      <c r="I76" s="2" t="inlineStr"/>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>&lt;a href="mailto:?subject=Fisher Observation Response Summary&amp;body=Species: FISHER%0D%A0When did you see the fisher? 2024-12-13%0D%A0Observation Type: VISUAL%0D%A0Where did you see the fisher? (lat, long): 52.16889510996533 -124.14701405159009%0D%A0Photo Name: "&gt;Email me the response summary&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="K76" s="4" t="n">
+        <v>45642.97624462963</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr"/>
+      <c r="M76" s="2" t="inlineStr"/>
+      <c r="N76" s="2" t="inlineStr">
+        <is>
+          <t>VISUAL</t>
+        </is>
+      </c>
+      <c r="O76" s="2" t="inlineStr"/>
+      <c r="P76" s="2" t="inlineStr">
+        <is>
+          <t>&lt;100m</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>45643</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>53.20923</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>-119.99108</v>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>fisher_visual_107_photo1.jpeg</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr"/>
+      <c r="H77" s="2" t="inlineStr"/>
+      <c r="I77" s="2" t="inlineStr"/>
+      <c r="J77" s="2" t="inlineStr"/>
+      <c r="K77" s="4" t="n">
+        <v>45645.20570200231</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr"/>
+      <c r="M77" s="2" t="inlineStr"/>
+      <c r="N77" s="2" t="inlineStr">
+        <is>
+          <t>VISUAL</t>
+        </is>
+      </c>
+      <c r="O77" s="2" t="inlineStr"/>
+      <c r="P77" s="2" t="inlineStr">
+        <is>
+          <t>&lt;100m</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trapper_data_report.xlsx
+++ b/trapper_data_report.xlsx
@@ -33756,7 +33756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36626,6 +36626,52 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>45652</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>53.77309294095549</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>-122.917129387866</v>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>fisher_visual_108_photo1.jpeg</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr"/>
+      <c r="H78" s="2" t="inlineStr"/>
+      <c r="I78" s="2" t="inlineStr"/>
+      <c r="J78" s="2" t="inlineStr"/>
+      <c r="K78" s="4" t="n">
+        <v>45653.1924543287</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr"/>
+      <c r="M78" s="2" t="inlineStr"/>
+      <c r="N78" s="2" t="inlineStr">
+        <is>
+          <t>VISUAL</t>
+        </is>
+      </c>
+      <c r="O78" s="2" t="inlineStr"/>
+      <c r="P78" s="2" t="inlineStr">
+        <is>
+          <t>&lt;100m</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trapper_data_report.xlsx
+++ b/trapper_data_report.xlsx
@@ -33756,7 +33756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36672,6 +36672,56 @@
         </is>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>45646</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>51.23940475200126</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>-121.3932949351402</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>IMG_3266.jpeg</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr"/>
+      <c r="H79" s="2" t="inlineStr"/>
+      <c r="I79" s="2" t="inlineStr"/>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>&lt;a href="mailto:?subject=Fisher Observation Response Summary&amp;body=Species: FISHER%0D%A0When did you see the fisher? 2024-12-20%0D%A0Observation Type: KILL SITE/FISHER CARCASS%0D%A0Where did you see the fisher? (lat, long): 51.239404752001256 -121.39329493514018%0D%A0Photo Name: IMG_3266.jpeg"&gt;Email me the response summary&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="K79" s="4" t="n">
+        <v>45663.22800660878</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr"/>
+      <c r="M79" s="2" t="inlineStr"/>
+      <c r="N79" s="2" t="inlineStr">
+        <is>
+          <t>KILL SITE/FISHER CARCASS</t>
+        </is>
+      </c>
+      <c r="O79" s="2" t="inlineStr"/>
+      <c r="P79" s="2" t="inlineStr">
+        <is>
+          <t>&lt;100m</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trapper_data_report.xlsx
+++ b/trapper_data_report.xlsx
@@ -33756,7 +33756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36722,6 +36722,52 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>45668</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>52.020777</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>-122.003834</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr"/>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr"/>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr"/>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>&lt;a href="mailto:?subject=Fisher Observation Response Summary&amp;body=Species: FISHER%0D%A0When did you see the fisher? 2025-01-11%0D%A0Observation Type: TRACK%0D%A0Where did you see the fisher? (lat, long): 52.020777 -122.003834%0D%A0Photo Name: "&gt;Email me the response summary&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="K80" s="4" t="n">
+        <v>45670.71616746527</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr"/>
+      <c r="M80" s="2" t="inlineStr"/>
+      <c r="N80" s="2" t="inlineStr">
+        <is>
+          <t>TRACK</t>
+        </is>
+      </c>
+      <c r="O80" s="2" t="inlineStr"/>
+      <c r="P80" s="2" t="inlineStr">
+        <is>
+          <t>&lt;100m</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trapper_data_report.xlsx
+++ b/trapper_data_report.xlsx
@@ -33756,7 +33756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36768,6 +36768,78 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>45653</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>52.01440645115918</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>-122.2259240811467</v>
+      </c>
+      <c r="E81" s="2" t="inlineStr"/>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr"/>
+      <c r="H81" s="2" t="inlineStr"/>
+      <c r="I81" s="2" t="inlineStr"/>
+      <c r="J81" s="2" t="inlineStr"/>
+      <c r="K81" s="2" t="inlineStr"/>
+      <c r="L81" s="2" t="inlineStr"/>
+      <c r="M81" s="2" t="inlineStr"/>
+      <c r="N81" s="2" t="inlineStr">
+        <is>
+          <t>TRACK</t>
+        </is>
+      </c>
+      <c r="O81" s="2" t="inlineStr"/>
+      <c r="P81" s="2" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>45681</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>51.95642982411123</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>-122.1992800561583</v>
+      </c>
+      <c r="E82" s="2" t="inlineStr"/>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr"/>
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr"/>
+      <c r="J82" s="2" t="inlineStr"/>
+      <c r="K82" s="2" t="inlineStr"/>
+      <c r="L82" s="2" t="inlineStr"/>
+      <c r="M82" s="2" t="inlineStr"/>
+      <c r="N82" s="2" t="inlineStr">
+        <is>
+          <t>TRACK</t>
+        </is>
+      </c>
+      <c r="O82" s="2" t="inlineStr"/>
+      <c r="P82" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trapper_data_report.xlsx
+++ b/trapper_data_report.xlsx
@@ -33756,7 +33756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36840,6 +36840,78 @@
       <c r="O82" s="2" t="inlineStr"/>
       <c r="P82" s="2" t="inlineStr"/>
     </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>45682</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>52.05047976230497</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>-122.198837790752</v>
+      </c>
+      <c r="E83" s="2" t="inlineStr"/>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr"/>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr"/>
+      <c r="J83" s="2" t="inlineStr"/>
+      <c r="K83" s="2" t="inlineStr"/>
+      <c r="L83" s="2" t="inlineStr"/>
+      <c r="M83" s="2" t="inlineStr"/>
+      <c r="N83" s="2" t="inlineStr">
+        <is>
+          <t>TRACK</t>
+        </is>
+      </c>
+      <c r="O83" s="2" t="inlineStr"/>
+      <c r="P83" s="2" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>45682</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>52.00979537644516</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>-122.1995481615391</v>
+      </c>
+      <c r="E84" s="2" t="inlineStr"/>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr"/>
+      <c r="H84" s="2" t="inlineStr"/>
+      <c r="I84" s="2" t="inlineStr"/>
+      <c r="J84" s="2" t="inlineStr"/>
+      <c r="K84" s="2" t="inlineStr"/>
+      <c r="L84" s="2" t="inlineStr"/>
+      <c r="M84" s="2" t="inlineStr"/>
+      <c r="N84" s="2" t="inlineStr">
+        <is>
+          <t>TRACK</t>
+        </is>
+      </c>
+      <c r="O84" s="2" t="inlineStr"/>
+      <c r="P84" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trapper_data_report.xlsx
+++ b/trapper_data_report.xlsx
@@ -33756,7 +33756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36912,6 +36912,56 @@
       <c r="O84" s="2" t="inlineStr"/>
       <c r="P84" s="2" t="inlineStr"/>
     </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>45694</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>49.73341002627122</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>-125.2534735382497</v>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>Fisher_1.JPG</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>Not Reviewed</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr"/>
+      <c r="H85" s="2" t="inlineStr"/>
+      <c r="I85" s="2" t="inlineStr"/>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>&lt;a href="mailto:?subject=Fisher Observation Response Summary&amp;body=Species: FISHER%0D%A0When did you see the fisher? 2025-02-06%0D%A0Observation Type: TRACK%0D%A0Where did you see the fisher? (lat, long): 49.733410026271216 -125.25347353824971%0D%A0Photo Name: Fisher_1.JPG"&gt;Email me the response summary&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="K85" s="4" t="n">
+        <v>45695.03481520832</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr"/>
+      <c r="M85" s="2" t="inlineStr"/>
+      <c r="N85" s="2" t="inlineStr">
+        <is>
+          <t>TRACK</t>
+        </is>
+      </c>
+      <c r="O85" s="2" t="inlineStr"/>
+      <c r="P85" s="2" t="inlineStr">
+        <is>
+          <t>&lt;10km</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
